--- a/out/table_1.xlsx
+++ b/out/table_1.xlsx
@@ -785,12 +785,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15733.973 (SD: ± 16309.116)</t>
+          <t>15.734 (SD: ± 16.309)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10769.443 (IQR: 5937.124 - 19160.776; range: 900.733 - 117145.435)</t>
+          <t>10.769 (IQR: 5.937 - 19.161; range: 0.901 - 117.145)</t>
         </is>
       </c>
     </row>
